--- a/biology/Médecine/Vicky_Clement-Jones/Vicky_Clement-Jones.xlsx
+++ b/biology/Médecine/Vicky_Clement-Jones/Vicky_Clement-Jones.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vicky Veronica Clement-Jones née Yip (23 décembre 1948 - 30 juillet 1987) est un médecin britannique et chercheur médical. Son propre diagnostic de cancer de l'ovaire l'a amenée à fonder la British Association for Cancer United Patients (BACUP) en 1984, la plus importante organisation du genre au Royaume-Uni.
 </t>
@@ -511,9 +523,11 @@
           <t>Jeunesse et formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vicky Veronica Yip naît en 1948 à Hong Kong de Teddy Yip, un homme d'affaires chinois, et Susie Ho. En 1957, Yip et ses quatre frères et sœurs déménagent avec leur mère à East Grinstead (Sussex de l'Ouest)[1]. Elle fait ses études à la Notre Dame Convent School à Lingfield dans le Surrey et à l'East Grinstead County Grammar School. Diplômée en sciences médicales, archéologie et anthropologie du Girton College de Cambridge en 1971, elle étudie ensuite la médecine à la St Thomas's Hospital Medical School. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vicky Veronica Yip naît en 1948 à Hong Kong de Teddy Yip, un homme d'affaires chinois, et Susie Ho. En 1957, Yip et ses quatre frères et sœurs déménagent avec leur mère à East Grinstead (Sussex de l'Ouest). Elle fait ses études à la Notre Dame Convent School à Lingfield dans le Surrey et à l'East Grinstead County Grammar School. Diplômée en sciences médicales, archéologie et anthropologie du Girton College de Cambridge en 1971, elle étudie ensuite la médecine à la St Thomas's Hospital Medical School. 
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle épouse Timothy Clement-Jones, un avocat d'entreprise, en 1973 et sort diplômée de St Thomas avec un Bachelors of Medicine and Surgery en 1974. Après avoir obtenu son diplôme, Clement-Jones occupe des postes d'internes à St Thomas puis devient médecin principale de la maison en neurologie et médecine thoracique[2]. Elle est nommée Chef de clinique à l'hôpital St Bartholomew en 1976 et reçoit la bourse Aylwen pour effectuer des recherches sur les peptides opioïdes impliqués dans les réponses à la douleur. Elle contribue a la publication de plus de 30 articles. Elle conçoit un dosage radio-immunologique pour l'un de ces peptides, ses résultats sont publiés dans Nature[1]. 
-Clement-Jones est diagnostiquée d'un cancer de l'ovaire en 1982[3]. Elle crée alors la British Association for Cancer United Patients (BACUP), une organisation qui fournit des informations, des conseils et un soutien émotionnel aux patients atteints de cancer[4]. BACUP a été enregistré comme organisme caritatif en 1984 et deviendra plus tard la plus grande organisation du genre au Royaume-Uni. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle épouse Timothy Clement-Jones, un avocat d'entreprise, en 1973 et sort diplômée de St Thomas avec un Bachelors of Medicine and Surgery en 1974. Après avoir obtenu son diplôme, Clement-Jones occupe des postes d'internes à St Thomas puis devient médecin principale de la maison en neurologie et médecine thoracique. Elle est nommée Chef de clinique à l'hôpital St Bartholomew en 1976 et reçoit la bourse Aylwen pour effectuer des recherches sur les peptides opioïdes impliqués dans les réponses à la douleur. Elle contribue a la publication de plus de 30 articles. Elle conçoit un dosage radio-immunologique pour l'un de ces peptides, ses résultats sont publiés dans Nature. 
+Clement-Jones est diagnostiquée d'un cancer de l'ovaire en 1982. Elle crée alors la British Association for Cancer United Patients (BACUP), une organisation qui fournit des informations, des conseils et un soutien émotionnel aux patients atteints de cancer. BACUP a été enregistré comme organisme caritatif en 1984 et deviendra plus tard la plus grande organisation du genre au Royaume-Uni. 
 Le 26 juin 1987, elle fait une apparition prolongée sur le programme de discussion de la télévision britannique After Dark, sur le thème de "Killing With Care?" .  
-Le mois suivant — le 30 juillet — elle décède, à l'âge de 38 ans des suites du cancer[1]. 
+Le mois suivant — le 30 juillet — elle décède, à l'âge de 38 ans des suites du cancer. 
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) A Grossman, V Clement-Jones, « Opiate Receptors: Enkephalins and Endorphins », inol Metab, vol. 12, no 1,‎ mars 1983, p. 31-56 (DOI 10.1016/s0300-595x(83)80028-0)
 (en) V Clement-Jones, G M Besser, « Clinical Perspectives in Opioid Peptides », Br Med Bull, vol. 39, no 1,‎ janvier 1983, p. 95-100 (DOI 10.1093/oxfordjournals.bmb.a071798)
